--- a/PRTC_Hotels_Prices_2026-02-03.xlsx
+++ b/PRTC_Hotels_Prices_2026-02-03.xlsx
@@ -955,7 +955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:O153"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="J1" s="3" t="inlineStr">
         <is>
-          <t>Xotelo_Price_USD</t>
+          <t>Price_USD</t>
         </is>
       </c>
       <c r="K1" s="3" t="inlineStr">
@@ -1024,6 +1024,16 @@
       <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Search_Params</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>Date_Found</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1081,13 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1139,13 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>xotelo</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1186,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Agoda.com</t>
+          <t>Vio.com</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -1174,7 +1196,13 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>xotelo</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1253,13 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>xotelo</t>
         </is>
       </c>
     </row>
@@ -1261,9 +1295,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J6" t="n">
+        <v>215</v>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Google Hotels</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1273,7 +1310,13 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>serpapi</t>
         </is>
       </c>
     </row>
@@ -1310,11 +1353,11 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>908</v>
+        <v>1028</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Vio.com</t>
+          <t xml:space="preserve"> Official Site</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1324,7 +1367,13 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -1361,11 +1410,11 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Vio.com</t>
+          <t>Agoda.com</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1375,7 +1424,13 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -1411,9 +1466,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J9" t="n">
+        <v>431</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Trip.com</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1423,7 +1481,13 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>xotelo:+60d</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1524,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1474,7 +1538,13 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -1525,7 +1595,13 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1652,13 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -1613,11 +1695,11 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>411</v>
+        <v>344</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Trip.com</t>
+          <t>Official Hotel</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1627,7 +1709,13 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -1678,7 +1766,13 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -1714,9 +1808,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J15" t="n">
+        <v>569</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Booking.com</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1726,7 +1823,13 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>xotelo:+60d</t>
         </is>
       </c>
     </row>
@@ -1763,11 +1866,11 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>762</v>
+        <v>662</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Trip.com</t>
+          <t>Vio.com</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1777,7 +1880,13 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -1814,11 +1923,11 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Agoda.com</t>
+          <t>Vio.com</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1828,7 +1937,13 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1994,13 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -1916,11 +2037,11 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>584</v>
+        <v>531</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Agoda.com</t>
+          <t>Olive Boutique</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1930,7 +2051,13 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -1967,7 +2094,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1981,7 +2108,13 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2151,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2032,7 +2165,13 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2222,13 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2279,13 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -2185,7 +2336,13 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2393,13 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2450,13 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2504,13 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -2372,11 +2547,11 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Vio.com</t>
+          <t>Agoda.com</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2386,7 +2561,13 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2604,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2437,7 +2618,13 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -2488,7 +2675,13 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -2539,7 +2732,13 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -2590,7 +2789,13 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -2627,11 +2832,11 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Agoda.com</t>
+          <t>Vio.com</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2641,7 +2846,13 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -2677,9 +2888,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J34" t="n">
+        <v>583</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Agoda.com</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2689,7 +2903,13 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>xotelo:weekend</t>
         </is>
       </c>
     </row>
@@ -2726,11 +2946,11 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Booking.com</t>
+          <t xml:space="preserve"> Official Site</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2740,7 +2960,13 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -2777,11 +3003,11 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Booking.com</t>
+          <t>Vio.com</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2791,7 +3017,13 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -2827,9 +3059,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J37" t="n">
+        <v>270</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Booking.com</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2839,7 +3074,13 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>xotelo:+90d</t>
         </is>
       </c>
     </row>
@@ -2876,11 +3117,11 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Vio.com</t>
+          <t>Booking.com</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2890,7 +3131,13 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -2941,7 +3188,13 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -2972,6 +3225,28 @@
       <c r="F40" t="n">
         <v>202512</v>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3017,7 +3292,13 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -3054,11 +3335,11 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Agoda.com</t>
+          <t>Trip.com</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3068,7 +3349,13 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -3105,11 +3392,11 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Vio.com</t>
+          <t>Official Site</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3119,7 +3406,13 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -3170,7 +3463,13 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -3206,9 +3505,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J45" t="n">
+        <v>202</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Agoda.com</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3218,7 +3520,13 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>xotelo:+90d</t>
         </is>
       </c>
     </row>
@@ -3255,11 +3563,11 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Vio.com</t>
+          <t>Official Site</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3269,7 +3577,13 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -3305,9 +3619,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J47" t="n">
+        <v>322</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Booking.com</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3317,7 +3634,13 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>xotelo:weekend</t>
         </is>
       </c>
     </row>
@@ -3368,7 +3691,13 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3734,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -3419,7 +3748,13 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -3470,7 +3805,13 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3862,13 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -3572,7 +3919,13 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -3623,7 +3976,13 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -3660,11 +4019,11 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Official Site</t>
+          <t>Agoda.com</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3674,7 +4033,13 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -3725,7 +4090,13 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -3761,9 +4132,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J56" t="n">
+        <v>569</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Booking.com</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3773,7 +4147,13 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>xotelo:+60d</t>
         </is>
       </c>
     </row>
@@ -3821,7 +4201,13 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -3857,9 +4243,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J58" t="n">
+        <v>134</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Vio.com</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3869,7 +4258,13 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>xotelo:+90d</t>
         </is>
       </c>
     </row>
@@ -3905,9 +4300,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J59" t="n">
+        <v>148.65</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Booking.com</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3917,7 +4315,13 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>apify</t>
         </is>
       </c>
     </row>
@@ -3968,7 +4372,13 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -4005,11 +4415,11 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Agoda.com</t>
+          <t>Vio.com</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4019,7 +4429,13 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -4070,7 +4486,13 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4529,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -4121,7 +4543,13 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -4158,7 +4586,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -4172,7 +4600,13 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4657,13 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -4274,7 +4714,13 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -4310,9 +4756,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J67" t="n">
+        <v>262</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Google Hotels</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4322,7 +4771,13 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>serpapi</t>
         </is>
       </c>
     </row>
@@ -4370,7 +4825,13 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4882,13 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -4457,9 +4924,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J70" t="n">
+        <v>165</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Booking.com</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4469,7 +4939,13 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>xotelo:+90d</t>
         </is>
       </c>
     </row>
@@ -4520,7 +4996,13 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -4557,7 +5039,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -4571,7 +5053,13 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -4622,7 +5110,13 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -4673,7 +5167,13 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -4724,7 +5224,13 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -4760,9 +5266,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J76" t="n">
+        <v>194</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Trip.com</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -4772,7 +5281,13 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>xotelo:+90d</t>
         </is>
       </c>
     </row>
@@ -4823,7 +5338,13 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -4860,11 +5381,11 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Booking.com</t>
+          <t>Vio.com</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4874,7 +5395,13 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -4925,7 +5452,13 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -4976,7 +5509,13 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -5027,7 +5566,13 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -5063,9 +5608,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J82" t="n">
+        <v>100</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Booking.com</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5075,7 +5623,13 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>apify</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5680,13 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -5174,7 +5734,13 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -5210,9 +5776,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J85" t="n">
+        <v>135</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Agoda.com</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5222,7 +5791,13 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -5259,11 +5834,11 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Booking.com</t>
+          <t>Vio.com</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5273,7 +5848,13 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -5309,9 +5890,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J87" t="n">
+        <v>216</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Vio.com</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -5321,7 +5905,13 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -5358,11 +5948,11 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Vio.com</t>
+          <t>Trip.com</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5372,7 +5962,13 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -5420,7 +6016,13 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -5471,7 +6073,13 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -5507,9 +6115,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J91" t="n">
+        <v>139</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Agoda.com</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5519,7 +6130,13 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -5555,9 +6172,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J92" t="n">
+        <v>130.37</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Booking.com</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5567,7 +6187,13 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>apify</t>
         </is>
       </c>
     </row>
@@ -5618,7 +6244,13 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -5655,7 +6287,7 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -5669,7 +6301,13 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -5706,11 +6344,11 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Booking.com</t>
+          <t>Vio.com</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -5720,7 +6358,13 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -5756,9 +6400,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J96" t="n">
+        <v>583</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Agoda.com</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -5768,7 +6415,13 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>xotelo:weekend</t>
         </is>
       </c>
     </row>
@@ -5799,6 +6452,28 @@
       <c r="F97" t="n">
         <v>202512</v>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5847,7 +6522,13 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -5898,7 +6579,13 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -5935,11 +6622,11 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Agoda.com</t>
+          <t>Vio.com</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -5949,7 +6636,13 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -5986,11 +6679,11 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Booking.com</t>
+          <t>Agoda.com</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -6000,7 +6693,13 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -6037,11 +6736,11 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Booking.com</t>
+          <t>Vio.com</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -6051,7 +6750,13 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -6088,11 +6793,11 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Vio.com</t>
+          <t>Agoda.com</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -6102,7 +6807,13 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6864,13 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -6190,7 +6907,7 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -6204,7 +6921,13 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -6252,7 +6975,13 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -6300,7 +7029,13 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -6336,9 +7071,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J108" t="n">
+        <v>122</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Vio.com</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -6348,7 +7086,13 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>xotelo:+90d</t>
         </is>
       </c>
     </row>
@@ -6399,7 +7143,13 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -6435,9 +7185,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J110" t="n">
+        <v>302</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Google Hotels</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -6447,7 +7200,13 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>serpapi</t>
         </is>
       </c>
     </row>
@@ -6495,7 +7254,13 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -6546,7 +7311,13 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -6594,7 +7365,13 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -6645,7 +7422,13 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -6693,7 +7476,13 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -6741,7 +7530,13 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -6792,7 +7587,13 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -6840,7 +7641,13 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -6876,9 +7683,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J119" t="n">
+        <v>362.6</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Booking.com</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -6888,7 +7698,13 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>apify</t>
         </is>
       </c>
     </row>
@@ -6939,7 +7755,13 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -6987,7 +7809,13 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -7038,7 +7866,13 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7920,13 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -7122,9 +7962,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J124" t="n">
+        <v>104</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Booking.com</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -7134,7 +7977,13 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>xotelo:+60d</t>
         </is>
       </c>
     </row>
@@ -7182,7 +8031,13 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -7233,7 +8088,13 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -7270,11 +8131,11 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Booking.com</t>
+          <t>Vio.com</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -7284,7 +8145,13 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -7335,7 +8202,13 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -7386,7 +8259,13 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -7437,7 +8316,13 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -7474,11 +8359,11 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Booking.com</t>
+          <t>Vio.com</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -7488,7 +8373,13 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -7536,7 +8427,13 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -7573,11 +8470,11 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Booking.com</t>
+          <t>Vio.com</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -7587,7 +8484,13 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -7635,7 +8538,13 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -7686,7 +8595,13 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -7723,11 +8638,11 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Booking.com</t>
+          <t>Vio.com</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -7737,7 +8652,13 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -7774,11 +8695,11 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Vio.com</t>
+          <t>Agoda.com</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -7788,7 +8709,13 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -7825,7 +8752,7 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -7839,7 +8766,13 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -7876,7 +8809,7 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -7890,7 +8823,13 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -7938,7 +8877,13 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -7986,7 +8931,13 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -8023,11 +8974,11 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Booking.com</t>
+          <t>Vio.com</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -8037,7 +8988,13 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -8073,9 +9030,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J143" t="n">
+        <v>133</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Vio.com</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -8085,7 +9045,13 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>xotelo:+90d</t>
         </is>
       </c>
     </row>
@@ -8133,7 +9099,13 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -8181,7 +9153,13 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -8212,6 +9190,31 @@
       <c r="F146" t="n">
         <v>202512</v>
       </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>145</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Google Hotels</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>serpapi</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8260,7 +9263,13 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>
@@ -8308,7 +9317,13 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -8356,7 +9371,13 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -8404,7 +9425,13 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -8440,9 +9467,12 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="J151" t="n">
+        <v>106</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Official Hotel Site</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -8452,7 +9482,13 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>xotelo:+60d</t>
         </is>
       </c>
     </row>
@@ -8503,7 +9539,13 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad</t>
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>xotelo:+30d</t>
         </is>
       </c>
     </row>

--- a/PRTC_Hotels_Prices_2026-02-03.xlsx
+++ b/PRTC_Hotels_Prices_2026-02-03.xlsx
@@ -955,7 +955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O153"/>
+  <dimension ref="A1:N153"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1028,11 +1028,6 @@
       </c>
       <c r="N1" s="3" t="inlineStr">
         <is>
-          <t>Date_Found</t>
-        </is>
-      </c>
-      <c r="O1" s="3" t="inlineStr">
-        <is>
           <t>Source</t>
         </is>
       </c>
@@ -1081,11 +1076,10 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (cascade)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>none</t>
         </is>
@@ -1139,11 +1133,10 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (cascade)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>xotelo</t>
         </is>
@@ -1196,11 +1189,10 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (cascade)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>xotelo</t>
         </is>
@@ -1253,11 +1245,10 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (cascade)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>xotelo</t>
         </is>
@@ -1310,11 +1301,10 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
+          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (cascade)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>serpapi</t>
         </is>
@@ -1347,35 +1337,6 @@
       <c r="F7" t="n">
         <v>202512</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>1028</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Official Site</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>g147319-d3333177</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1404,35 +1365,6 @@
       <c r="F8" t="n">
         <v>202512</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>367</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Agoda.com</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>g147319-d148045</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1461,35 +1393,6 @@
       <c r="F9" t="n">
         <v>202512</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>431</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Trip.com</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>g147319-d1423064</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>xotelo:+60d</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1518,35 +1421,6 @@
       <c r="F10" t="n">
         <v>202512</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>491</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Trip.com</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>g147319-d155800</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1575,35 +1449,6 @@
       <c r="F11" t="n">
         <v>202512</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>734</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Trip.com</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>g147319-d150446</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1632,35 +1477,6 @@
       <c r="F12" t="n">
         <v>202512</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>312</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>g147319-d224196</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1689,35 +1505,6 @@
       <c r="F13" t="n">
         <v>202512</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>344</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Official Hotel</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>g147319-d13969946</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1746,35 +1533,6 @@
       <c r="F14" t="n">
         <v>202512</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>328</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>g147319-d209618</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1803,35 +1561,6 @@
       <c r="F15" t="n">
         <v>202512</v>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>569</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>g147319-d9602805</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>xotelo:+60d</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1860,35 +1589,6 @@
       <c r="F16" t="n">
         <v>202512</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>662</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>g147319-d148598</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1917,35 +1617,6 @@
       <c r="F17" t="n">
         <v>202512</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>178</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>g147319-d148807</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1974,35 +1645,6 @@
       <c r="F18" t="n">
         <v>202512</v>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>598</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Official Site</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>g147319-d12522646</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2031,35 +1673,6 @@
       <c r="F19" t="n">
         <v>202512</v>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>531</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Olive Boutique</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>g147319-d3152780</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2088,35 +1701,6 @@
       <c r="F20" t="n">
         <v>202512</v>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>403</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>g147319-d150443</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2145,35 +1729,6 @@
       <c r="F21" t="n">
         <v>202512</v>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>753</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>g147319-d284987</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2202,35 +1757,6 @@
       <c r="F22" t="n">
         <v>202512</v>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
-        <v>315</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Trip.com</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>g147319-d26878084</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2259,35 +1785,6 @@
       <c r="F23" t="n">
         <v>202512</v>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J23" t="n">
-        <v>347</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>g147319-d151713</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2316,35 +1813,6 @@
       <c r="F24" t="n">
         <v>202512</v>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J24" t="n">
-        <v>165</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>g147319-d297785</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2373,35 +1841,6 @@
       <c r="F25" t="n">
         <v>202512</v>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J25" t="n">
-        <v>420</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Agoda.com</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>g147319-d242220</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2430,35 +1869,6 @@
       <c r="F26" t="n">
         <v>202512</v>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J26" t="n">
-        <v>468</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Trip.com</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>g147319-d268430</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2487,32 +1897,6 @@
       <c r="F27" t="n">
         <v>202512</v>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>g147319-d16659689</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2541,35 +1925,6 @@
       <c r="F28" t="n">
         <v>202512</v>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J28" t="n">
-        <v>201</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Agoda.com</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>g147320-d2179878</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2598,35 +1953,6 @@
       <c r="F29" t="n">
         <v>202512</v>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
-        <v>414</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>g147319-d151682</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2655,35 +1981,6 @@
       <c r="F30" t="n">
         <v>202512</v>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
-        <v>442</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>g147320-d26857069</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2712,35 +2009,6 @@
       <c r="F31" t="n">
         <v>202512</v>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J31" t="n">
-        <v>160</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Official Site</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>g264369-d151980</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2769,35 +2037,6 @@
       <c r="F32" t="n">
         <v>202512</v>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J32" t="n">
-        <v>413</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>AC Hotels</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>g147319-d12349375</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2826,35 +2065,6 @@
       <c r="F33" t="n">
         <v>202512</v>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J33" t="n">
-        <v>415</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>g147319-d8618734</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2883,35 +2093,6 @@
       <c r="F34" t="n">
         <v>202512</v>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>583</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Agoda.com</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>g147319-d149921</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>xotelo:weekend</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2940,35 +2121,6 @@
       <c r="F35" t="n">
         <v>202512</v>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>210</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Official Site</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>g147319-d242226</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2997,35 +2149,6 @@
       <c r="F36" t="n">
         <v>202512</v>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J36" t="n">
-        <v>102</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>g147319-d13324163</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3054,35 +2177,6 @@
       <c r="F37" t="n">
         <v>202512</v>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
-        <v>270</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>g147320-d23130157</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>xotelo:+90d</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3111,35 +2205,6 @@
       <c r="F38" t="n">
         <v>202512</v>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J38" t="n">
-        <v>200</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>g147319-d264386</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3168,35 +2233,6 @@
       <c r="F39" t="n">
         <v>202512</v>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J39" t="n">
-        <v>404</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Residence Inn</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>g147319-d23924461</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3225,28 +2261,6 @@
       <c r="F40" t="n">
         <v>202512</v>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3275,32 +2289,6 @@
       <c r="F41" t="n">
         <v>202512</v>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>g147319-d503287</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3329,35 +2317,6 @@
       <c r="F42" t="n">
         <v>202512</v>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J42" t="n">
-        <v>317</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Trip.com</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>g147319-d310451</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3386,35 +2345,6 @@
       <c r="F43" t="n">
         <v>202512</v>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J43" t="n">
-        <v>139</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Official Site</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>g147319-d1232094</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3443,35 +2373,6 @@
       <c r="F44" t="n">
         <v>202512</v>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
-        <v>362</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>FourPoints.com</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>g147319-d534897</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3500,35 +2401,6 @@
       <c r="F45" t="n">
         <v>202512</v>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>202</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Agoda.com</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>g147319-d148043</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>xotelo:+90d</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3557,35 +2429,6 @@
       <c r="F46" t="n">
         <v>202512</v>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>139</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Official Site</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>g147319-d1232094</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3614,35 +2457,6 @@
       <c r="F47" t="n">
         <v>202512</v>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
-        <v>322</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>g147319-d254380</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>xotelo:weekend</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3671,35 +2485,6 @@
       <c r="F48" t="n">
         <v>202512</v>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
-        <v>192</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Courtyard</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>g147319-d858414</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3728,35 +2513,6 @@
       <c r="F49" t="n">
         <v>202512</v>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
-        <v>289</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Agoda.com</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>g147319-d151806</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3785,35 +2541,6 @@
       <c r="F50" t="n">
         <v>202512</v>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J50" t="n">
-        <v>279</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>g147319-d151671</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3842,35 +2569,6 @@
       <c r="F51" t="n">
         <v>202512</v>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>292</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Trip.com</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>g147319-d26627285</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3899,35 +2597,6 @@
       <c r="F52" t="n">
         <v>202512</v>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>295</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>g147319-d5274354</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3956,35 +2625,6 @@
       <c r="F53" t="n">
         <v>202512</v>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J53" t="n">
-        <v>452</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Trip.com</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>g147319-d30767613</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4013,35 +2653,6 @@
       <c r="F54" t="n">
         <v>202512</v>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>122</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Agoda.com</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>g147319-d12220946</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4070,35 +2681,6 @@
       <c r="F55" t="n">
         <v>202512</v>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>540</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>g147319-d26555257</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4127,35 +2709,6 @@
       <c r="F56" t="n">
         <v>202512</v>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J56" t="n">
-        <v>569</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>g147319-d9602805</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>xotelo:+60d</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4184,32 +2737,6 @@
       <c r="F57" t="n">
         <v>202512</v>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>g147319-d151840</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4238,35 +2765,6 @@
       <c r="F58" t="n">
         <v>202512</v>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J58" t="n">
-        <v>134</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>g147319-d155796</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>xotelo:+90d</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4295,35 +2793,6 @@
       <c r="F59" t="n">
         <v>202512</v>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>g147326-d1569786</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>apify</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4352,35 +2821,6 @@
       <c r="F60" t="n">
         <v>202512</v>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
-        <v>152</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>g147319-d151796</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4409,35 +2849,6 @@
       <c r="F61" t="n">
         <v>202512</v>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>109</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>g147319-d24800269</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4466,35 +2877,6 @@
       <c r="F62" t="n">
         <v>202512</v>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J62" t="n">
-        <v>280</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>g147319-d600604</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4523,35 +2905,6 @@
       <c r="F63" t="n">
         <v>202512</v>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
-        <v>440</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>g147319-d150241</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4580,35 +2933,6 @@
       <c r="F64" t="n">
         <v>202512</v>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J64" t="n">
-        <v>175</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>g147319-d253693</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4637,35 +2961,6 @@
       <c r="F65" t="n">
         <v>202512</v>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J65" t="n">
-        <v>398</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>g147319-d6892975</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4694,35 +2989,6 @@
       <c r="F66" t="n">
         <v>202512</v>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J66" t="n">
-        <v>191</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>g147319-d5598171</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4751,35 +3017,6 @@
       <c r="F67" t="n">
         <v>202512</v>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J67" t="n">
-        <v>262</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Google Hotels</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>g147319-d26629555</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>serpapi</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4808,32 +3045,6 @@
       <c r="F68" t="n">
         <v>202512</v>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>g147319-d623904</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4862,35 +3073,6 @@
       <c r="F69" t="n">
         <v>202512</v>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J69" t="n">
-        <v>312</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Agoda.com</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>g147319-d25178239</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4919,35 +3101,6 @@
       <c r="F70" t="n">
         <v>202512</v>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J70" t="n">
-        <v>165</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>g147319-d151808</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>xotelo:+90d</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4976,35 +3129,6 @@
       <c r="F71" t="n">
         <v>202512</v>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J71" t="n">
-        <v>152</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>g147319-d6847423</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5033,35 +3157,6 @@
       <c r="F72" t="n">
         <v>202512</v>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J72" t="n">
-        <v>278</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Agoda.com</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>g147319-d1988329</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5090,35 +3185,6 @@
       <c r="F73" t="n">
         <v>202512</v>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J73" t="n">
-        <v>167</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Trip.com</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>g147319-d10195804</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5147,35 +3213,6 @@
       <c r="F74" t="n">
         <v>202512</v>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
-        <v>320</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Official Site</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>g147319-d15141926</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5204,35 +3241,6 @@
       <c r="F75" t="n">
         <v>202512</v>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J75" t="n">
-        <v>270</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Trip.com</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>g147320-d249485</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5261,35 +3269,6 @@
       <c r="F76" t="n">
         <v>202512</v>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>194</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Trip.com</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>g147319-d25247369</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>xotelo:+90d</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5318,35 +3297,6 @@
       <c r="F77" t="n">
         <v>202512</v>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J77" t="n">
-        <v>157</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>g147319-d151832</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5375,35 +3325,6 @@
       <c r="F78" t="n">
         <v>202512</v>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J78" t="n">
-        <v>180</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>g147319-d498911</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5432,35 +3353,6 @@
       <c r="F79" t="n">
         <v>202512</v>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J79" t="n">
-        <v>487</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>g147319-d20116315</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5489,35 +3381,6 @@
       <c r="F80" t="n">
         <v>202512</v>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>161</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Trip.com</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>g147319-d21502214</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5546,35 +3409,6 @@
       <c r="F81" t="n">
         <v>202512</v>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
-        <v>175</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>g147319-d151797</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5603,35 +3437,6 @@
       <c r="F82" t="n">
         <v>202512</v>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J82" t="n">
-        <v>100</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>g147319-d280418</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>apify</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5660,35 +3465,6 @@
       <c r="F83" t="n">
         <v>202512</v>
       </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>218</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>g147319-d17741745</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5717,32 +3493,6 @@
       <c r="F84" t="n">
         <v>202512</v>
       </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>g147319-d275180</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5771,35 +3521,6 @@
       <c r="F85" t="n">
         <v>202512</v>
       </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J85" t="n">
-        <v>135</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Agoda.com</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>g147319-d23482969</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5828,35 +3549,6 @@
       <c r="F86" t="n">
         <v>202512</v>
       </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J86" t="n">
-        <v>258</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>g147319-d1048165</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5885,35 +3577,6 @@
       <c r="F87" t="n">
         <v>202512</v>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J87" t="n">
-        <v>216</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>g147319-d147790</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5942,35 +3605,6 @@
       <c r="F88" t="n">
         <v>202512</v>
       </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J88" t="n">
-        <v>243</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Trip.com</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>g147319-d6161031</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5999,32 +3633,6 @@
       <c r="F89" t="n">
         <v>202512</v>
       </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>g147319-d668014</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6053,35 +3661,6 @@
       <c r="F90" t="n">
         <v>202512</v>
       </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J90" t="n">
-        <v>299</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>HIExpress.com</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>g147319-d151941</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6110,35 +3689,6 @@
       <c r="F91" t="n">
         <v>202512</v>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J91" t="n">
-        <v>139</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Agoda.com</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>g147319-d23865228</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6167,35 +3717,6 @@
       <c r="F92" t="n">
         <v>202512</v>
       </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J92" t="n">
-        <v>130.37</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>g609121-d60096</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>apify</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6224,35 +3745,6 @@
       <c r="F93" t="n">
         <v>202512</v>
       </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J93" t="n">
-        <v>179</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Trip.com</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>g147319-d1456033</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6281,35 +3773,6 @@
       <c r="F94" t="n">
         <v>202512</v>
       </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J94" t="n">
-        <v>105</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>g147319-d2481661</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6338,35 +3801,6 @@
       <c r="F95" t="n">
         <v>202512</v>
       </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J95" t="n">
-        <v>151</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>g147319-d148560</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6395,35 +3829,6 @@
       <c r="F96" t="n">
         <v>202512</v>
       </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J96" t="n">
-        <v>583</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Agoda.com</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>g147319-d149921</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>xotelo:weekend</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6452,28 +3857,6 @@
       <c r="F97" t="n">
         <v>202512</v>
       </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6502,35 +3885,6 @@
       <c r="F98" t="n">
         <v>202512</v>
       </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J98" t="n">
-        <v>127</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>g147319-d150417</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6559,35 +3913,6 @@
       <c r="F99" t="n">
         <v>202512</v>
       </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J99" t="n">
-        <v>120</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>g147319-d575670</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6616,35 +3941,6 @@
       <c r="F100" t="n">
         <v>202512</v>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J100" t="n">
-        <v>95</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>g147319-d148789</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6673,35 +3969,6 @@
       <c r="F101" t="n">
         <v>202512</v>
       </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J101" t="n">
-        <v>134</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Agoda.com</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>g147319-d268429</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6730,35 +3997,6 @@
       <c r="F102" t="n">
         <v>202512</v>
       </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J102" t="n">
-        <v>179</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>g147319-d7316138</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6787,35 +4025,6 @@
       <c r="F103" t="n">
         <v>202512</v>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J103" t="n">
-        <v>117</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>Agoda.com</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>g147319-d14943546</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6844,35 +4053,6 @@
       <c r="F104" t="n">
         <v>202512</v>
       </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J104" t="n">
-        <v>140</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>Official Site</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>g147319-d27184349</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6901,35 +4081,6 @@
       <c r="F105" t="n">
         <v>202512</v>
       </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J105" t="n">
-        <v>136</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>Agoda.com</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>g147319-d151679</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6958,32 +4109,6 @@
       <c r="F106" t="n">
         <v>202512</v>
       </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>g147319-d147798</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7012,32 +4137,6 @@
       <c r="F107" t="n">
         <v>202512</v>
       </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>g147319-d485475</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7066,35 +4165,6 @@
       <c r="F108" t="n">
         <v>202512</v>
       </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J108" t="n">
-        <v>122</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>g147319-d267552</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>xotelo:+90d</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7123,35 +4193,6 @@
       <c r="F109" t="n">
         <v>202512</v>
       </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J109" t="n">
-        <v>177</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>g147319-d3310458</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7180,35 +4221,6 @@
       <c r="F110" t="n">
         <v>202512</v>
       </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J110" t="n">
-        <v>302</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>Google Hotels</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>g147319-d2058980</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>serpapi</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7237,32 +4249,6 @@
       <c r="F111" t="n">
         <v>202512</v>
       </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>g147319-d1391914</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7291,35 +4277,6 @@
       <c r="F112" t="n">
         <v>202512</v>
       </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J112" t="n">
-        <v>140</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>g147319-d251396</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7348,32 +4305,6 @@
       <c r="F113" t="n">
         <v>202512</v>
       </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>g147319-d151668</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7402,35 +4333,6 @@
       <c r="F114" t="n">
         <v>202512</v>
       </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J114" t="n">
-        <v>205</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>g147319-d1681896</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7459,32 +4361,6 @@
       <c r="F115" t="n">
         <v>202512</v>
       </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>g147319-d26723746</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7513,32 +4389,6 @@
       <c r="F116" t="n">
         <v>202512</v>
       </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>g147319-d5964475</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7567,35 +4417,6 @@
       <c r="F117" t="n">
         <v>202512</v>
       </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J117" t="n">
-        <v>149</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>g147319-d151667</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7624,32 +4445,6 @@
       <c r="F118" t="n">
         <v>202512</v>
       </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>g147319-d151670</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7678,35 +4473,6 @@
       <c r="F119" t="n">
         <v>202512</v>
       </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J119" t="n">
-        <v>362.6</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>g147319-d293708</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr"/>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>apify</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7735,35 +4501,6 @@
       <c r="F120" t="n">
         <v>202512</v>
       </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J120" t="n">
-        <v>155</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>g147319-d25456741</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7792,32 +4529,6 @@
       <c r="F121" t="n">
         <v>202512</v>
       </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>g147319-d20243623</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7846,35 +4557,6 @@
       <c r="F122" t="n">
         <v>202512</v>
       </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J122" t="n">
-        <v>110</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>g147319-d251395</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7903,32 +4585,6 @@
       <c r="F123" t="n">
         <v>202512</v>
       </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>g147319-d2066940</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7957,35 +4613,6 @@
       <c r="F124" t="n">
         <v>202512</v>
       </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J124" t="n">
-        <v>104</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>g147319-d14920354</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>xotelo:+60d</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8014,32 +4641,6 @@
       <c r="F125" t="n">
         <v>202512</v>
       </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>g147319-d291146</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr"/>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8068,35 +4669,6 @@
       <c r="F126" t="n">
         <v>202512</v>
       </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J126" t="n">
-        <v>138</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>g147319-d649104</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N126" t="inlineStr"/>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8125,35 +4697,6 @@
       <c r="F127" t="n">
         <v>202512</v>
       </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J127" t="n">
-        <v>258</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>g147319-d9463907</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr"/>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8182,35 +4725,6 @@
       <c r="F128" t="n">
         <v>202512</v>
       </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J128" t="n">
-        <v>165</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>g147319-d13373035</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8239,35 +4753,6 @@
       <c r="F129" t="n">
         <v>202512</v>
       </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J129" t="n">
-        <v>135</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>g147319-d151966</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr"/>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8296,35 +4781,6 @@
       <c r="F130" t="n">
         <v>202512</v>
       </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J130" t="n">
-        <v>168</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>g147319-d268433</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8353,35 +4809,6 @@
       <c r="F131" t="n">
         <v>202512</v>
       </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J131" t="n">
-        <v>125</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>g147319-d590083</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr"/>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8410,32 +4837,6 @@
       <c r="F132" t="n">
         <v>202512</v>
       </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>g147319-d1007145</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr"/>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8464,35 +4865,6 @@
       <c r="F133" t="n">
         <v>202512</v>
       </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J133" t="n">
-        <v>134</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>g147319-d10730993</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr"/>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8521,32 +4893,6 @@
       <c r="F134" t="n">
         <v>202512</v>
       </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>g147319-d7720672</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr"/>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8575,35 +4921,6 @@
       <c r="F135" t="n">
         <v>202512</v>
       </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J135" t="n">
-        <v>139</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>g147319-d8522359</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N135" t="inlineStr"/>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8632,35 +4949,6 @@
       <c r="F136" t="n">
         <v>202512</v>
       </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J136" t="n">
-        <v>135</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>g147319-d267488</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8689,35 +4977,6 @@
       <c r="F137" t="n">
         <v>202512</v>
       </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J137" t="n">
-        <v>192</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>Agoda.com</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>g147319-d1151081</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N137" t="inlineStr"/>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8746,35 +5005,6 @@
       <c r="F138" t="n">
         <v>202512</v>
       </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J138" t="n">
-        <v>95</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>Agoda.com</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>g147319-d150242</t>
-        </is>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr"/>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8803,35 +5033,6 @@
       <c r="F139" t="n">
         <v>202512</v>
       </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J139" t="n">
-        <v>95</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>Agoda.com</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>g147319-d150242</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8860,32 +5061,6 @@
       <c r="F140" t="n">
         <v>202512</v>
       </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>g147319-d7137980</t>
-        </is>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N140" t="inlineStr"/>
-      <c r="O140" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8914,32 +5089,6 @@
       <c r="F141" t="n">
         <v>202512</v>
       </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>g147319-d291146</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr"/>
-      <c r="O141" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8968,35 +5117,6 @@
       <c r="F142" t="n">
         <v>202512</v>
       </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J142" t="n">
-        <v>258</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>g147319-d9463907</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -9025,35 +5145,6 @@
       <c r="F143" t="n">
         <v>202512</v>
       </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J143" t="n">
-        <v>133</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>Vio.com</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>g147319-d1593115</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>xotelo:+90d</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -9082,32 +5173,6 @@
       <c r="F144" t="n">
         <v>202512</v>
       </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>g147319-d15856029</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9136,32 +5201,6 @@
       <c r="F145" t="n">
         <v>202512</v>
       </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>g147319-d1984406</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9190,31 +5229,6 @@
       <c r="F146" t="n">
         <v>202512</v>
       </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J146" t="n">
-        <v>145</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>Google Hotels</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr">
-        <is>
-          <t>serpapi</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9243,35 +5257,6 @@
       <c r="F147" t="n">
         <v>202512</v>
       </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J147" t="n">
-        <v>115</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>Booking.com</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>g147319-d15585165</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9300,32 +5285,6 @@
       <c r="F148" t="n">
         <v>202512</v>
       </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>g147319-d681285</t>
-        </is>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -9354,32 +5313,6 @@
       <c r="F149" t="n">
         <v>202512</v>
       </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>g147319-d636068</t>
-        </is>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9408,32 +5341,6 @@
       <c r="F150" t="n">
         <v>202512</v>
       </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>g147319-d14037453</t>
-        </is>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9462,35 +5369,6 @@
       <c r="F151" t="n">
         <v>202512</v>
       </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J151" t="n">
-        <v>106</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>Official Hotel Site</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>g147319-d12379060</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr">
-        <is>
-          <t>xotelo:+60d</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9518,35 +5396,6 @@
       </c>
       <c r="F152" t="n">
         <v>202512</v>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="J152" t="n">
-        <v>98</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>Official Site</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>g147319-d12640390</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>2026-03-05 to 2026-03-06 | 1rm/2ad (multi-date) (cascade)</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr">
-        <is>
-          <t>xotelo:+30d</t>
-        </is>
       </c>
     </row>
     <row r="153">
